--- a/PYTHON/pokemon_cleaned.xlsx
+++ b/PYTHON/pokemon_cleaned.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N152"/>
+  <dimension ref="A1:O152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,20 +486,25 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>multipliers</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>weakness</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>next_evolution</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>prev_evolution</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>spawn_time_total_seconds</t>
         </is>
@@ -546,20 +551,25 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>[1.58]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>Fire, Ice, Flying, Psychic</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>['Ivysaur', 'Venusaur']</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -604,20 +614,25 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>[1.2, 1.6]</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>Fire, Ice, Flying, Psychic</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>['Venusaur']</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>['Bulbasaur']</t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>420</v>
       </c>
     </row>
@@ -658,22 +673,23 @@
       <c r="J4" t="n">
         <v>1.7</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Fire, Ice, Flying, Psychic</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>['Bulbasaur', 'Ivysaur']</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>690</v>
       </c>
     </row>
@@ -718,20 +734,25 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>[1.65]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>Water, Ground, Rock</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>['Charmeleon', 'Charizard']</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>525</v>
       </c>
     </row>
@@ -776,20 +797,25 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>[1.79]</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>Water, Ground, Rock</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>['Charizard']</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>['Charmander']</t>
         </is>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>1140</v>
       </c>
     </row>
@@ -830,22 +856,23 @@
       <c r="J7" t="n">
         <v>0.31</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
         <is>
           <t>Water, Electric, Rock</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>['Charmander', 'Charmeleon']</t>
         </is>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>814</v>
       </c>
     </row>
@@ -890,20 +917,25 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>[2.1]</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>['Wartortle', 'Blastoise']</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
         <v>265</v>
       </c>
     </row>
@@ -948,20 +980,25 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>[1.4]</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>['Blastoise']</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>['Squirtle']</t>
         </is>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>422</v>
       </c>
     </row>
@@ -1002,22 +1039,23 @@
       <c r="J10" t="n">
         <v>0.67</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
         <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>['Squirtle', 'Wartortle']</t>
         </is>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1062,20 +1100,25 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>[1.05]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>Fire, Flying, Rock</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>['Metapod', 'Butterfree']</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
         <v>995</v>
       </c>
     </row>
@@ -1120,20 +1163,25 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>[3.55, 3.79]</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>Fire, Flying, Rock</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>['Butterfree']</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>['Caterpie']</t>
         </is>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>131</v>
       </c>
     </row>
@@ -1174,22 +1222,23 @@
       <c r="J13" t="n">
         <v>2.2</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Fire, Electric, Ice, Flying, Rock</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>['Caterpie', 'Metapod']</t>
         </is>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>323</v>
       </c>
     </row>
@@ -1234,20 +1283,25 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>[1.01, 1.09]</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>Fire, Flying, Psychic, Rock</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>['Kakuna', 'Beedrill']</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
         <v>141</v>
       </c>
     </row>
@@ -1292,20 +1346,25 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>[3.01, 3.41]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>Fire, Flying, Psychic, Rock</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>['Beedrill']</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>['Weedle']</t>
         </is>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>150</v>
       </c>
     </row>
@@ -1346,22 +1405,23 @@
       <c r="J16" t="n">
         <v>5.1</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Fire, Flying, Psychic, Rock</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M16" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>['Weedle', 'Kakuna']</t>
         </is>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>290</v>
       </c>
     </row>
@@ -1406,20 +1466,25 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
+          <t>[1.71, 1.92]</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>Electric, Rock</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>['Pidgeotto', 'Pidgeot']</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
         <v>94</v>
       </c>
     </row>
@@ -1464,20 +1529,25 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
+          <t>[1.79]</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>Electric, Rock</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>['Pidgeot']</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>['Pidgey']</t>
         </is>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>90</v>
       </c>
     </row>
@@ -1518,22 +1588,23 @@
       <c r="J19" t="n">
         <v>13</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
         <is>
           <t>Electric, Rock</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M19" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>['Pidgey', 'Pidgeotto']</t>
         </is>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>110</v>
       </c>
     </row>
@@ -1578,20 +1649,25 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>[2.55, 2.73]</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>['Raticate']</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
         <v>115</v>
       </c>
     </row>
@@ -1632,22 +1708,23 @@
       <c r="J21" t="n">
         <v>41</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>['Rattata']</t>
         </is>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>116</v>
       </c>
     </row>
@@ -1692,20 +1769,25 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
+          <t>[2.66, 2.68]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
           <t>Electric, Rock</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>['Fearow']</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
         <v>745</v>
       </c>
     </row>
@@ -1746,22 +1828,23 @@
       <c r="J23" t="n">
         <v>15</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
         <is>
           <t>Electric, Rock</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M23" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>['Spearow']</t>
         </is>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>71</v>
       </c>
     </row>
@@ -1806,20 +1889,25 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
+          <t>[2.21, 2.27]</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
           <t>Ground, Psychic</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>['Arbok']</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
         <v>740</v>
       </c>
     </row>
@@ -1860,22 +1948,23 @@
       <c r="J25" t="n">
         <v>7.2</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
         <is>
           <t>Ground, Psychic</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M25" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>['Ekans']</t>
         </is>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>110</v>
       </c>
     </row>
@@ -1920,20 +2009,25 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
+          <t>[2.34]</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
           <t>Ground</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>['Raichu']</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
         <v>240</v>
       </c>
     </row>
@@ -1974,22 +2068,23 @@
       <c r="J27" t="n">
         <v>0.76</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
         <is>
           <t>Ground</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M27" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>['Pikachu']</t>
         </is>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>1438</v>
       </c>
     </row>
@@ -2034,20 +2129,25 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
+          <t>[2.45]</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
           <t>Water, Grass, Ice</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>['Sandslash']</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
         <v>118</v>
       </c>
     </row>
@@ -2088,22 +2188,23 @@
       <c r="J29" t="n">
         <v>3.7</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Water, Grass, Ice</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M29" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>['Sandshrew']</t>
         </is>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>754</v>
       </c>
     </row>
@@ -2148,20 +2249,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
+          <t>[1.63, 2.48]</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
           <t>Ground, Psychic</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>['Nidorina', 'Nidoqueen']</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
         <v>111</v>
       </c>
     </row>
@@ -2206,20 +2312,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
+          <t>[1.83, 2.48]</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
           <t>Ground, Psychic</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>['Nidoqueen']</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>['Nidoran(Female)']</t>
         </is>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>442</v>
       </c>
     </row>
@@ -2260,22 +2371,23 @@
       <c r="J32" t="n">
         <v>1.2</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
         <is>
           <t>Water, Ice, Ground, Psychic</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
           <t>['Nidoran(Female)', 'Nidorina']</t>
         </is>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>755</v>
       </c>
     </row>
@@ -2320,20 +2432,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
+          <t>[1.64, 1.7]</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
           <t>Ground, Psychic</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>['Nidorino', 'Nidoking']</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
         <v>72</v>
       </c>
     </row>
@@ -2378,20 +2495,25 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
+          <t>[1.83]</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
           <t>Ground, Psychic</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>['Nidoking']</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>['Nidoran(Male)']</t>
         </is>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>542</v>
       </c>
     </row>
@@ -2432,22 +2554,23 @@
       <c r="J35" t="n">
         <v>1.7</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
         <is>
           <t>Water, Ice, Ground, Psychic</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
           <t>['Nidoran(Male)', 'Nidorino']</t>
         </is>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>736</v>
       </c>
     </row>
@@ -2492,20 +2615,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
+          <t>[2.03, 2.14]</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>['Clefable']</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
         <v>210</v>
       </c>
     </row>
@@ -2546,22 +2674,23 @@
       <c r="J37" t="n">
         <v>1.2</v>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
           <t>['Clefairy']</t>
         </is>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>209</v>
       </c>
     </row>
@@ -2606,20 +2735,25 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
+          <t>[2.74, 2.81]</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
           <t>Water, Ground, Rock</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>['Ninetales']</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
         <v>823</v>
       </c>
     </row>
@@ -2660,22 +2794,23 @@
       <c r="J39" t="n">
         <v>0.77</v>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
         <is>
           <t>Water, Ground, Rock</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
           <t>['Vulpix']</t>
         </is>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>92</v>
       </c>
     </row>
@@ -2720,20 +2855,25 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
+          <t>[1.85]</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>['Wigglytuff']</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
         <v>526</v>
       </c>
     </row>
@@ -2774,22 +2914,23 @@
       <c r="J41" t="n">
         <v>1.8</v>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>['Jigglypuff']</t>
         </is>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>748</v>
       </c>
     </row>
@@ -2834,20 +2975,25 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
+          <t>[2.6, 3.67]</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
           <t>Electric, Ice, Psychic, Rock</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>['Golbat']</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
         <v>748</v>
       </c>
     </row>
@@ -2888,22 +3034,23 @@
       <c r="J43" t="n">
         <v>42</v>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
         <is>
           <t>Electric, Ice, Psychic, Rock</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M43" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
           <t>['Zubat']</t>
         </is>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>135</v>
       </c>
     </row>
@@ -2948,20 +3095,25 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
+          <t>[1.5]</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
           <t>Fire, Ice, Flying, Psychic</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>['Gloom', 'Vileplume']</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
         <v>238</v>
       </c>
     </row>
@@ -3006,20 +3158,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
+          <t>[1.49]</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
           <t>Fire, Ice, Flying, Psychic</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>['Vileplume']</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="N45" t="inlineStr">
         <is>
           <t>['Oddish']</t>
         </is>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>693</v>
       </c>
     </row>
@@ -3060,22 +3217,23 @@
       <c r="J46" t="n">
         <v>0.97</v>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
         <is>
           <t>Fire, Ice, Flying, Psychic</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
           <t>['Oddish', 'Gloom']</t>
         </is>
       </c>
-      <c r="N46" t="n">
+      <c r="O46" t="n">
         <v>1438</v>
       </c>
     </row>
@@ -3120,20 +3278,25 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
+          <t>[2.02]</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
           <t>Fire, Ice, Poison, Flying, Bug, Rock</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>['Parasect']</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
         <v>102</v>
       </c>
     </row>
@@ -3174,22 +3337,23 @@
       <c r="J48" t="n">
         <v>7.4</v>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Fire, Ice, Poison, Flying, Bug, Rock</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M48" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
           <t>['Paras']</t>
         </is>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>82</v>
       </c>
     </row>
@@ -3234,20 +3398,25 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
+          <t>[1.86, 1.9]</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
           <t>Fire, Flying, Psychic, Rock</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>['Venomoth']</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
         <v>151</v>
       </c>
     </row>
@@ -3288,22 +3457,23 @@
       <c r="J50" t="n">
         <v>7.2</v>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
         <is>
           <t>Fire, Flying, Psychic, Rock</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M50" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
           <t>['Venonat']</t>
         </is>
       </c>
-      <c r="N50" t="n">
+      <c r="O50" t="n">
         <v>1420</v>
       </c>
     </row>
@@ -3348,20 +3518,25 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
+          <t>[2.69]</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
           <t>Water, Grass, Ice</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>['Dugtrio']</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
         <v>142</v>
       </c>
     </row>
@@ -3402,22 +3577,23 @@
       <c r="J52" t="n">
         <v>1.4</v>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Water, Grass, Ice</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M52" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
           <t>['Diglett']</t>
         </is>
       </c>
-      <c r="N52" t="n">
+      <c r="O52" t="n">
         <v>757</v>
       </c>
     </row>
@@ -3462,20 +3638,25 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
+          <t>[1.98]</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>['Persian']</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
         <v>174</v>
       </c>
     </row>
@@ -3516,22 +3697,23 @@
       <c r="J54" t="n">
         <v>2.2</v>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M54" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
           <t>['Meowth']</t>
         </is>
       </c>
-      <c r="N54" t="n">
+      <c r="O54" t="n">
         <v>164</v>
       </c>
     </row>
@@ -3576,20 +3758,25 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
+          <t>[2.27]</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>['Golduck']</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
         <v>221</v>
       </c>
     </row>
@@ -3630,22 +3817,23 @@
       <c r="J56" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M56" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
           <t>['Psyduck']</t>
         </is>
       </c>
-      <c r="N56" t="n">
+      <c r="O56" t="n">
         <v>1386</v>
       </c>
     </row>
@@ -3690,20 +3878,25 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
+          <t>[2.17, 2.28]</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
           <t>Flying, Psychic, Fairy</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>['Primeape']</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
         <v>772</v>
       </c>
     </row>
@@ -3744,22 +3937,23 @@
       <c r="J58" t="n">
         <v>3.1</v>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
         <is>
           <t>Flying, Psychic, Fairy</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M58" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
           <t>['Mankey']</t>
         </is>
       </c>
-      <c r="N58" t="n">
+      <c r="O58" t="n">
         <v>753</v>
       </c>
     </row>
@@ -3804,20 +3998,25 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
+          <t>[2.31, 2.36]</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
           <t>Water, Ground, Rock</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>['Arcanine']</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
         <v>237</v>
       </c>
     </row>
@@ -3858,22 +4057,23 @@
       <c r="J60" t="n">
         <v>1.7</v>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
         <is>
           <t>Water, Ground, Rock</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M60" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
           <t>['Growlithe']</t>
         </is>
       </c>
-      <c r="N60" t="n">
+      <c r="O60" t="n">
         <v>191</v>
       </c>
     </row>
@@ -3918,20 +4118,25 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
+          <t>[1.72, 1.73]</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>['Poliwhirl', 'Poliwrath']</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
         <v>220</v>
       </c>
     </row>
@@ -3976,20 +4181,25 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
+          <t>[1.95]</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>['Poliwrath']</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="N62" t="inlineStr">
         <is>
           <t>['Poliwag']</t>
         </is>
       </c>
-      <c r="N62" t="n">
+      <c r="O62" t="n">
         <v>554</v>
       </c>
     </row>
@@ -4030,22 +4240,23 @@
       <c r="J63" t="n">
         <v>1.1</v>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
         <is>
           <t>Electric, Grass, Flying, Psychic, Fairy</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M63" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
           <t>['Poliwag', 'Poliwhirl']</t>
         </is>
       </c>
-      <c r="N63" t="n">
+      <c r="O63" t="n">
         <v>92</v>
       </c>
     </row>
@@ -4090,20 +4301,25 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
+          <t>[1.36, 1.95]</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
           <t>Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>['Kadabra', 'Alakazam']</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
         <v>270</v>
       </c>
     </row>
@@ -4148,20 +4364,25 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
+          <t>[1.4]</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
           <t>Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>['Alakazam']</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="N65" t="inlineStr">
         <is>
           <t>['Abra']</t>
         </is>
       </c>
-      <c r="N65" t="n">
+      <c r="O65" t="n">
         <v>685</v>
       </c>
     </row>
@@ -4202,22 +4423,23 @@
       <c r="J66" t="n">
         <v>0.73</v>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
         <is>
           <t>Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M66" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
           <t>['Abra', 'Kadabra']</t>
         </is>
       </c>
-      <c r="N66" t="n">
+      <c r="O66" t="n">
         <v>753</v>
       </c>
     </row>
@@ -4262,20 +4484,25 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
+          <t>[1.64, 1.65]</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
           <t>Flying, Psychic, Fairy</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>['Machoke', 'Machamp']</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
         <v>115</v>
       </c>
     </row>
@@ -4320,20 +4547,25 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
+          <t>[1.7]</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
           <t>Flying, Psychic, Fairy</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>['Machamp']</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="N68" t="inlineStr">
         <is>
           <t>['Machop']</t>
         </is>
       </c>
-      <c r="N68" t="n">
+      <c r="O68" t="n">
         <v>632</v>
       </c>
     </row>
@@ -4374,22 +4606,23 @@
       <c r="J69" t="n">
         <v>0.68</v>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
         <is>
           <t>Flying, Psychic, Fairy</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M69" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
           <t>['Machop', 'Machoke']</t>
         </is>
       </c>
-      <c r="N69" t="n">
+      <c r="O69" t="n">
         <v>175</v>
       </c>
     </row>
@@ -4434,20 +4667,25 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
+          <t>[1.57]</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
           <t>Fire, Ice, Flying, Psychic</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>['Weepinbell', 'Victreebel']</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
         <v>250</v>
       </c>
     </row>
@@ -4492,20 +4730,25 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
+          <t>[1.59]</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
           <t>Fire, Ice, Flying, Psychic</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>['Victreebel']</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="N71" t="inlineStr">
         <is>
           <t>['Bellsprout']</t>
         </is>
       </c>
-      <c r="N71" t="n">
+      <c r="O71" t="n">
         <v>585</v>
       </c>
     </row>
@@ -4546,22 +4789,23 @@
       <c r="J72" t="n">
         <v>0.59</v>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
         <is>
           <t>Fire, Ice, Flying, Psychic</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M72" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
           <t>['Bellsprout', 'Weepinbell']</t>
         </is>
       </c>
-      <c r="N72" t="n">
+      <c r="O72" t="n">
         <v>739</v>
       </c>
     </row>
@@ -4606,20 +4850,25 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
+          <t>[2.52]</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
           <t>Electric, Ground, Psychic</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>['Tentacruel']</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O73" t="n">
         <v>200</v>
       </c>
     </row>
@@ -4660,22 +4909,23 @@
       <c r="J74" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
         <is>
           <t>Electric, Ground, Psychic</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M74" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
           <t>['Tentacool']</t>
         </is>
       </c>
-      <c r="N74" t="n">
+      <c r="O74" t="n">
         <v>1416</v>
       </c>
     </row>
@@ -4720,20 +4970,25 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
+          <t>[1.75, 1.76]</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
           <t>Water, Grass, Ice, Fighting, Ground, Steel</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>['Graveler', 'Golem']</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O75" t="n">
         <v>760</v>
       </c>
     </row>
@@ -4778,20 +5033,25 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
+          <t>[1.64, 1.72]</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
           <t>Water, Grass, Ice, Fighting, Ground, Steel</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>['Golem']</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="N76" t="inlineStr">
         <is>
           <t>['Geodude']</t>
         </is>
       </c>
-      <c r="N76" t="n">
+      <c r="O76" t="n">
         <v>293</v>
       </c>
     </row>
@@ -4832,22 +5092,23 @@
       <c r="J77" t="n">
         <v>0.47</v>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
         <is>
           <t>Water, Grass, Ice, Fighting, Ground, Steel</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M77" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
           <t>['Geodude', 'Graveler']</t>
         </is>
       </c>
-      <c r="N77" t="n">
+      <c r="O77" t="n">
         <v>736</v>
       </c>
     </row>
@@ -4892,20 +5153,25 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
+          <t>[1.48, 1.5]</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
           <t>Water, Ground, Rock</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>['Rapidash']</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O78" t="n">
         <v>170</v>
       </c>
     </row>
@@ -4946,22 +5212,23 @@
       <c r="J79" t="n">
         <v>1.1</v>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
         <is>
           <t>Water, Ground, Rock</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M79" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
           <t>['Ponyta']</t>
         </is>
       </c>
-      <c r="N79" t="n">
+      <c r="O79" t="n">
         <v>240</v>
       </c>
     </row>
@@ -5006,20 +5273,25 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
+          <t>[2.21]</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
           <t>Electric, Grass, Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>['Slowbro']</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O80" t="n">
         <v>432</v>
       </c>
     </row>
@@ -5060,22 +5332,23 @@
       <c r="J81" t="n">
         <v>3.6</v>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
         <is>
           <t>Electric, Grass, Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M81" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
           <t>['Slowpoke']</t>
         </is>
       </c>
-      <c r="N81" t="n">
+      <c r="O81" t="n">
         <v>176</v>
       </c>
     </row>
@@ -5120,20 +5393,25 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
+          <t>[2.16, 2.17]</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
           <t>Fire, Water, Ground</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="M82" t="inlineStr">
         <is>
           <t>['Magneton']</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O82" t="n">
         <v>244</v>
       </c>
     </row>
@@ -5174,22 +5452,23 @@
       <c r="J83" t="n">
         <v>2.3</v>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
         <is>
           <t>Fire, Water, Ground</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M83" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
           <t>['Magnemite']</t>
         </is>
       </c>
-      <c r="N83" t="n">
+      <c r="O83" t="n">
         <v>925</v>
       </c>
     </row>
@@ -5230,22 +5509,23 @@
       <c r="J84" t="n">
         <v>2.12</v>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
         <is>
           <t>Electric, Rock</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M84" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N84" t="n">
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O84" t="n">
         <v>69</v>
       </c>
     </row>
@@ -5290,20 +5570,25 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
+          <t>[2.19, 2.24]</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
           <t>Electric, Rock</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>['Dodrio']</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O85" t="n">
         <v>310</v>
       </c>
     </row>
@@ -5344,22 +5629,23 @@
       <c r="J86" t="n">
         <v>22</v>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
         <is>
           <t>Electric, Rock</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M86" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
           <t>['Doduo']</t>
         </is>
       </c>
-      <c r="N86" t="n">
+      <c r="O86" t="n">
         <v>132</v>
       </c>
     </row>
@@ -5404,20 +5690,25 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
+          <t>[1.04, 1.96]</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>['Dewgong']</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O87" t="n">
         <v>406</v>
       </c>
     </row>
@@ -5458,22 +5749,23 @@
       <c r="J88" t="n">
         <v>1.3</v>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Electric, Grass, Fighting, Rock</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M88" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
           <t>['Seel']</t>
         </is>
       </c>
-      <c r="N88" t="n">
+      <c r="O88" t="n">
         <v>364</v>
       </c>
     </row>
@@ -5518,20 +5810,25 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
+          <t>[2.44]</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
           <t>Ground, Psychic</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="M89" t="inlineStr">
         <is>
           <t>['Muk']</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O89" t="n">
         <v>911</v>
       </c>
     </row>
@@ -5572,22 +5869,23 @@
       <c r="J90" t="n">
         <v>0.31</v>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
         <is>
           <t>Ground, Psychic</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M90" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
           <t>['Grimer']</t>
         </is>
       </c>
-      <c r="N90" t="n">
+      <c r="O90" t="n">
         <v>88</v>
       </c>
     </row>
@@ -5632,20 +5930,25 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
+          <t>[2.65]</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="M91" t="inlineStr">
         <is>
           <t>['Cloyster']</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O91" t="n">
         <v>459</v>
       </c>
     </row>
@@ -5686,22 +5989,23 @@
       <c r="J92" t="n">
         <v>1.5</v>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
         <is>
           <t>Electric, Grass, Fighting, Rock</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M92" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
           <t>['Shellder']</t>
         </is>
       </c>
-      <c r="N92" t="n">
+      <c r="O92" t="n">
         <v>153</v>
       </c>
     </row>
@@ -5746,20 +6050,25 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
+          <t>[1.78]</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
           <t>Ground, Psychic, Ghost, Dark</t>
         </is>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="M93" t="inlineStr">
         <is>
           <t>['Haunter', 'Gengar']</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O93" t="n">
         <v>261</v>
       </c>
     </row>
@@ -5804,20 +6113,25 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
+          <t>[1.56, 1.8]</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
           <t>Ground, Psychic, Ghost, Dark</t>
         </is>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="M94" t="inlineStr">
         <is>
           <t>['Gengar']</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr">
+      <c r="N94" t="inlineStr">
         <is>
           <t>['Gastly']</t>
         </is>
       </c>
-      <c r="N94" t="n">
+      <c r="O94" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5858,22 +6172,23 @@
       <c r="J95" t="n">
         <v>0.67</v>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
         <is>
           <t>Ground, Psychic, Ghost, Dark</t>
         </is>
       </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M95" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
           <t>['Gastly', 'Haunter']</t>
         </is>
       </c>
-      <c r="N95" t="n">
+      <c r="O95" t="n">
         <v>235</v>
       </c>
     </row>
@@ -5914,22 +6229,23 @@
       <c r="J96" t="n">
         <v>10</v>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
         <is>
           <t>Water, Grass, Ice, Fighting, Ground, Steel</t>
         </is>
       </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M96" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N96" t="n">
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O96" t="n">
         <v>78</v>
       </c>
     </row>
@@ -5974,20 +6290,25 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
+          <t>[2.08, 2.09]</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
           <t>Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="M97" t="inlineStr">
         <is>
           <t>['Hypno']</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O97" t="n">
         <v>111</v>
       </c>
     </row>
@@ -6028,22 +6349,23 @@
       <c r="J98" t="n">
         <v>10</v>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
         <is>
           <t>Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M98" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
           <t>['Drowzee']</t>
         </is>
       </c>
-      <c r="N98" t="n">
+      <c r="O98" t="n">
         <v>137</v>
       </c>
     </row>
@@ -6088,20 +6410,25 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
+          <t>[2.36, 2.4]</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="M99" t="inlineStr">
         <is>
           <t>['Kingler']</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O99" t="n">
         <v>213</v>
       </c>
     </row>
@@ -6142,22 +6469,23 @@
       <c r="J100" t="n">
         <v>6.2</v>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
         <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M100" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
           <t>['Krabby']</t>
         </is>
       </c>
-      <c r="N100" t="n">
+      <c r="O100" t="n">
         <v>224</v>
       </c>
     </row>
@@ -6202,20 +6530,25 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
+          <t>[2.01, 2.02]</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
           <t>Ground</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="M101" t="inlineStr">
         <is>
           <t>['Electrode']</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O101" t="n">
         <v>276</v>
       </c>
     </row>
@@ -6256,22 +6589,23 @@
       <c r="J102" t="n">
         <v>2</v>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
         <is>
           <t>Ground</t>
         </is>
       </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M102" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
           <t>['Voltorb']</t>
         </is>
       </c>
-      <c r="N102" t="n">
+      <c r="O102" t="n">
         <v>250</v>
       </c>
     </row>
@@ -6316,20 +6650,25 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
+          <t>[2.7, 3.18]</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
           <t>Fire, Ice, Poison, Flying, Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="M103" t="inlineStr">
         <is>
           <t>['Exeggutor']</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O103" t="n">
         <v>549</v>
       </c>
     </row>
@@ -6370,22 +6709,23 @@
       <c r="J104" t="n">
         <v>1.4</v>
       </c>
-      <c r="K104" t="inlineStr">
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
         <is>
           <t>Fire, Ice, Poison, Flying, Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M104" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
           <t>['Exeggcute']</t>
         </is>
       </c>
-      <c r="N104" t="n">
+      <c r="O104" t="n">
         <v>754</v>
       </c>
     </row>
@@ -6430,20 +6770,25 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
+          <t>[1.67]</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
           <t>Water, Grass, Ice</t>
         </is>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="M105" t="inlineStr">
         <is>
           <t>['Marowak']</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O105" t="n">
         <v>111</v>
       </c>
     </row>
@@ -6484,22 +6829,23 @@
       <c r="J106" t="n">
         <v>2</v>
       </c>
-      <c r="K106" t="inlineStr">
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
         <is>
           <t>Water, Grass, Ice</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M106" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
           <t>['Cubone']</t>
         </is>
       </c>
-      <c r="N106" t="n">
+      <c r="O106" t="n">
         <v>239</v>
       </c>
     </row>
@@ -6540,22 +6886,23 @@
       <c r="J107" t="n">
         <v>2</v>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
         <is>
           <t>Flying, Psychic, Fairy</t>
         </is>
       </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M107" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N107" t="n">
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O107" t="n">
         <v>239</v>
       </c>
     </row>
@@ -6596,22 +6943,23 @@
       <c r="J108" t="n">
         <v>2.2</v>
       </c>
-      <c r="K108" t="inlineStr">
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
         <is>
           <t>Flying, Psychic, Fairy</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M108" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N108" t="n">
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O108" t="n">
         <v>358</v>
       </c>
     </row>
@@ -6652,22 +7000,23 @@
       <c r="J109" t="n">
         <v>1.1</v>
       </c>
-      <c r="K109" t="inlineStr">
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M109" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N109" t="n">
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O109" t="n">
         <v>166</v>
       </c>
     </row>
@@ -6712,20 +7061,25 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
+          <t>[1.11]</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
           <t>Ground, Psychic</t>
         </is>
       </c>
-      <c r="L110" t="inlineStr">
+      <c r="M110" t="inlineStr">
         <is>
           <t>['Weezing']</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O110" t="n">
         <v>496</v>
       </c>
     </row>
@@ -6766,22 +7120,23 @@
       <c r="J111" t="n">
         <v>1.6</v>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
         <is>
           <t>Ground, Psychic</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M111" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
           <t>['Koffing']</t>
         </is>
       </c>
-      <c r="N111" t="n">
+      <c r="O111" t="n">
         <v>737</v>
       </c>
     </row>
@@ -6826,20 +7181,25 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
+          <t>[1.91]</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
           <t>Water, Grass, Ice, Fighting, Ground, Steel</t>
         </is>
       </c>
-      <c r="L112" t="inlineStr">
+      <c r="M112" t="inlineStr">
         <is>
           <t>['Rhydon']</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O112" t="n">
         <v>201</v>
       </c>
     </row>
@@ -6880,22 +7240,23 @@
       <c r="J113" t="n">
         <v>2.2</v>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
         <is>
           <t>Water, Grass, Ice, Fighting, Ground, Steel</t>
         </is>
       </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M113" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
           <t>['Rhyhorn']</t>
         </is>
       </c>
-      <c r="N113" t="n">
+      <c r="O113" t="n">
         <v>350</v>
       </c>
     </row>
@@ -6936,22 +7297,23 @@
       <c r="J114" t="n">
         <v>1.3</v>
       </c>
-      <c r="K114" t="inlineStr">
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M114" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N114" t="n">
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O114" t="n">
         <v>286</v>
       </c>
     </row>
@@ -6992,22 +7354,23 @@
       <c r="J115" t="n">
         <v>22.8</v>
       </c>
-      <c r="K115" t="inlineStr">
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
         <is>
           <t>Fire, Ice, Poison, Flying, Bug</t>
         </is>
       </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M115" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N115" t="n">
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O115" t="n">
         <v>1393</v>
       </c>
     </row>
@@ -7048,22 +7411,23 @@
       <c r="J116" t="n">
         <v>0.86</v>
       </c>
-      <c r="K116" t="inlineStr">
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M116" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N116" t="n">
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O116" t="n">
         <v>160</v>
       </c>
     </row>
@@ -7108,20 +7472,25 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
+          <t>[2.23]</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="L117" t="inlineStr">
+      <c r="M117" t="inlineStr">
         <is>
           <t>['Seadra']</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O117" t="n">
         <v>173</v>
       </c>
     </row>
@@ -7162,22 +7531,23 @@
       <c r="J118" t="n">
         <v>3.4</v>
       </c>
-      <c r="K118" t="inlineStr">
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
         <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M118" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
           <t>['Horsea']</t>
         </is>
       </c>
-      <c r="N118" t="n">
+      <c r="O118" t="n">
         <v>198</v>
       </c>
     </row>
@@ -7222,20 +7592,25 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
+          <t>[2.15, 2.2]</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="L119" t="inlineStr">
+      <c r="M119" t="inlineStr">
         <is>
           <t>['Seaking']</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O119" t="n">
         <v>194</v>
       </c>
     </row>
@@ -7276,22 +7651,23 @@
       <c r="J120" t="n">
         <v>8</v>
       </c>
-      <c r="K120" t="inlineStr">
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
         <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M120" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
           <t>['Goldeen']</t>
         </is>
       </c>
-      <c r="N120" t="n">
+      <c r="O120" t="n">
         <v>321</v>
       </c>
     </row>
@@ -7336,20 +7712,25 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
+          <t>[2.38, 2.41]</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="L121" t="inlineStr">
+      <c r="M121" t="inlineStr">
         <is>
           <t>['Starmie']</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O121" t="n">
         <v>1379</v>
       </c>
     </row>
@@ -7390,22 +7771,23 @@
       <c r="J122" t="n">
         <v>3.4</v>
       </c>
-      <c r="K122" t="inlineStr">
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
         <is>
           <t>Electric, Grass, Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M122" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
           <t>['Staryu']</t>
         </is>
       </c>
-      <c r="N122" t="n">
+      <c r="O122" t="n">
         <v>417</v>
       </c>
     </row>
@@ -7446,22 +7828,23 @@
       <c r="J123" t="n">
         <v>0.31</v>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M123" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N123" t="n">
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O123" t="n">
         <v>111</v>
       </c>
     </row>
@@ -7502,22 +7885,23 @@
       <c r="J124" t="n">
         <v>14</v>
       </c>
-      <c r="K124" t="inlineStr">
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Fire, Electric, Ice, Flying, Rock</t>
         </is>
       </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M124" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N124" t="n">
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O124" t="n">
         <v>343</v>
       </c>
     </row>
@@ -7558,22 +7942,23 @@
       <c r="J125" t="n">
         <v>35</v>
       </c>
-      <c r="K125" t="inlineStr">
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
         <is>
           <t>Fire, Bug, Rock, Ghost, Dark, Steel</t>
         </is>
       </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M125" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N125" t="n">
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O125" t="n">
         <v>341</v>
       </c>
     </row>
@@ -7614,22 +7999,23 @@
       <c r="J126" t="n">
         <v>7.4</v>
       </c>
-      <c r="K126" t="inlineStr">
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
         <is>
           <t>Ground</t>
         </is>
       </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M126" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N126" t="n">
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O126" t="n">
         <v>268</v>
       </c>
     </row>
@@ -7670,22 +8056,23 @@
       <c r="J127" t="n">
         <v>10</v>
       </c>
-      <c r="K127" t="inlineStr">
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
         <is>
           <t>Water, Ground, Rock</t>
         </is>
       </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M127" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N127" t="n">
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O127" t="n">
         <v>1236</v>
       </c>
     </row>
@@ -7726,22 +8113,23 @@
       <c r="J128" t="n">
         <v>99</v>
       </c>
-      <c r="K128" t="inlineStr">
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
         <is>
           <t>Fire, Flying, Rock</t>
         </is>
       </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M128" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N128" t="n">
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O128" t="n">
         <v>205</v>
       </c>
     </row>
@@ -7782,22 +8170,23 @@
       <c r="J129" t="n">
         <v>12</v>
       </c>
-      <c r="K129" t="inlineStr">
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M129" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N129" t="n">
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O129" t="n">
         <v>37</v>
       </c>
     </row>
@@ -7842,20 +8231,25 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
+          <t>[10.1, 11.8]</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="L130" t="inlineStr">
+      <c r="M130" t="inlineStr">
         <is>
           <t>['Gyarados']</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O130" t="n">
         <v>866</v>
       </c>
     </row>
@@ -7896,22 +8290,23 @@
       <c r="J131" t="n">
         <v>0.32</v>
       </c>
-      <c r="K131" t="inlineStr">
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
         <is>
           <t>Electric, Rock</t>
         </is>
       </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M131" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
           <t>['Magikarp']</t>
         </is>
       </c>
-      <c r="N131" t="n">
+      <c r="O131" t="n">
         <v>135</v>
       </c>
     </row>
@@ -7952,22 +8347,23 @@
       <c r="J132" t="n">
         <v>0.6</v>
       </c>
-      <c r="K132" t="inlineStr">
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Electric, Grass, Fighting, Rock</t>
         </is>
       </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M132" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N132" t="n">
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O132" t="n">
         <v>539</v>
       </c>
     </row>
@@ -8008,22 +8404,23 @@
       <c r="J133" t="n">
         <v>0</v>
       </c>
-      <c r="K133" t="inlineStr">
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M133" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8066,20 +8463,25 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
+          <t>[2.02, 2.64]</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="L134" t="inlineStr">
+      <c r="M134" t="inlineStr">
         <is>
           <t>['Vaporeon', 'Jolteon', 'Flareon']</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O134" t="n">
         <v>332</v>
       </c>
     </row>
@@ -8120,22 +8522,23 @@
       <c r="J135" t="n">
         <v>1.4</v>
       </c>
-      <c r="K135" t="inlineStr">
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
         <is>
           <t>Electric, Grass</t>
         </is>
       </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M135" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
           <t>['Eevee']</t>
         </is>
       </c>
-      <c r="N135" t="n">
+      <c r="O135" t="n">
         <v>654</v>
       </c>
     </row>
@@ -8176,22 +8579,23 @@
       <c r="J136" t="n">
         <v>1.2</v>
       </c>
-      <c r="K136" t="inlineStr">
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
         <is>
           <t>Ground</t>
         </is>
       </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M136" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
           <t>['Eevee']</t>
         </is>
       </c>
-      <c r="N136" t="n">
+      <c r="O136" t="n">
         <v>150</v>
       </c>
     </row>
@@ -8232,22 +8636,23 @@
       <c r="J137" t="n">
         <v>1.7</v>
       </c>
-      <c r="K137" t="inlineStr">
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
         <is>
           <t>Water, Ground, Rock</t>
         </is>
       </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M137" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
           <t>['Eevee']</t>
         </is>
       </c>
-      <c r="N137" t="n">
+      <c r="O137" t="n">
         <v>422</v>
       </c>
     </row>
@@ -8288,22 +8693,23 @@
       <c r="J138" t="n">
         <v>1.2</v>
       </c>
-      <c r="K138" t="inlineStr">
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M138" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N138" t="n">
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O138" t="n">
         <v>169</v>
       </c>
     </row>
@@ -8348,20 +8754,25 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
+          <t>[2.12]</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
           <t>Electric, Grass, Fighting, Ground</t>
         </is>
       </c>
-      <c r="L139" t="inlineStr">
+      <c r="M139" t="inlineStr">
         <is>
           <t>['Omastar']</t>
         </is>
       </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O139" t="n">
         <v>623</v>
       </c>
     </row>
@@ -8402,22 +8813,23 @@
       <c r="J140" t="n">
         <v>0.61</v>
       </c>
-      <c r="K140" t="inlineStr">
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
         <is>
           <t>Electric, Grass, Fighting, Ground</t>
         </is>
       </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M140" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
           <t>['Omanyte']</t>
         </is>
       </c>
-      <c r="N140" t="n">
+      <c r="O140" t="n">
         <v>304</v>
       </c>
     </row>
@@ -8462,20 +8874,25 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
+          <t>[1.97, 2.37]</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
           <t>Electric, Grass, Fighting, Ground</t>
         </is>
       </c>
-      <c r="L141" t="inlineStr">
+      <c r="M141" t="inlineStr">
         <is>
           <t>['Kabutops']</t>
         </is>
       </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O141" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8516,22 +8933,23 @@
       <c r="J142" t="n">
         <v>0.32</v>
       </c>
-      <c r="K142" t="inlineStr">
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
         <is>
           <t>Electric, Grass, Fighting, Ground</t>
         </is>
       </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M142" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
           <t>['Kabuto']</t>
         </is>
       </c>
-      <c r="N142" t="n">
+      <c r="O142" t="n">
         <v>1420</v>
       </c>
     </row>
@@ -8572,22 +8990,23 @@
       <c r="J143" t="n">
         <v>1.8</v>
       </c>
-      <c r="K143" t="inlineStr">
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
         <is>
           <t>Water, Electric, Ice, Rock, Steel</t>
         </is>
       </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M143" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N143" t="n">
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O143" t="n">
         <v>1420</v>
       </c>
     </row>
@@ -8628,22 +9047,23 @@
       <c r="J144" t="n">
         <v>1.6</v>
       </c>
-      <c r="K144" t="inlineStr">
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
         <is>
           <t>Fighting</t>
         </is>
       </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M144" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N144" t="n">
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O144" t="n">
         <v>1420</v>
       </c>
     </row>
@@ -8684,22 +9104,23 @@
       <c r="J145" t="n">
         <v>0</v>
       </c>
-      <c r="K145" t="inlineStr">
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
         <is>
           <t>Fire, Electric, Rock, Steel</t>
         </is>
       </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M145" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8738,22 +9159,23 @@
       <c r="J146" t="n">
         <v>0</v>
       </c>
-      <c r="K146" t="inlineStr">
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
         <is>
           <t>Ice, Rock</t>
         </is>
       </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M146" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8792,22 +9214,23 @@
       <c r="J147" t="n">
         <v>0</v>
       </c>
-      <c r="K147" t="inlineStr">
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
         <is>
           <t>Water, Electric, Rock</t>
         </is>
       </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M147" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8850,20 +9273,25 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
+          <t>[1.83, 1.84]</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
           <t>Ice, Dragon, Fairy</t>
         </is>
       </c>
-      <c r="L148" t="inlineStr">
+      <c r="M148" t="inlineStr">
         <is>
           <t>['Dragonair', 'Dragonite']</t>
         </is>
       </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N148" t="n">
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O148" t="n">
         <v>401</v>
       </c>
     </row>
@@ -8908,20 +9336,25 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
+          <t>[2.05]</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
           <t>Ice, Dragon, Fairy</t>
         </is>
       </c>
-      <c r="L149" t="inlineStr">
+      <c r="M149" t="inlineStr">
         <is>
           <t>['Dragonite']</t>
         </is>
       </c>
-      <c r="M149" t="inlineStr">
+      <c r="N149" t="inlineStr">
         <is>
           <t>['Dratini']</t>
         </is>
       </c>
-      <c r="N149" t="n">
+      <c r="O149" t="n">
         <v>717</v>
       </c>
     </row>
@@ -8962,22 +9395,23 @@
       <c r="J150" t="n">
         <v>0.11</v>
       </c>
-      <c r="K150" t="inlineStr">
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
         <is>
           <t>Ice, Rock, Dragon, Fairy</t>
         </is>
       </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M150" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
           <t>['Dratini', 'Dragonair']</t>
         </is>
       </c>
-      <c r="N150" t="n">
+      <c r="O150" t="n">
         <v>1418</v>
       </c>
     </row>
@@ -9018,22 +9452,23 @@
       <c r="J151" t="n">
         <v>0</v>
       </c>
-      <c r="K151" t="inlineStr">
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
         <is>
           <t>Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M151" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9072,22 +9507,23 @@
       <c r="J152" t="n">
         <v>0</v>
       </c>
-      <c r="K152" t="inlineStr">
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
         <is>
           <t>Bug, Ghost, Dark</t>
         </is>
       </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="M152" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
